--- a/puntajes_export.xlsx
+++ b/puntajes_export.xlsx
@@ -550,6 +550,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="D2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
       <c r="I2" t="n">
         <v>40</v>
       </c>
@@ -588,6 +603,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="D3" t="n">
+        <v>11</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" t="n">
+        <v>9</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
       <c r="I3" t="n">
         <v>45</v>
       </c>
@@ -626,6 +656,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>11</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
       <c r="I4" t="n">
         <v>38</v>
       </c>
@@ -664,6 +709,21 @@
           <t>A</t>
         </is>
       </c>
+      <c r="D5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>11</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
       <c r="I5" t="n">
         <v>25</v>
       </c>
@@ -701,6 +761,21 @@
         <is>
           <t>A</t>
         </is>
+      </c>
+      <c r="D6" t="n">
+        <v>11</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
       <c r="I6" t="n">
         <v>42</v>

--- a/puntajes_export.xlsx
+++ b/puntajes_export.xlsx
@@ -438,10 +438,10 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="34" customWidth="1" min="2" max="2"/>
+    <col width="27" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
@@ -537,195 +537,195 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>23107918-1</t>
+          <t>23211469-K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FRANCHESKA BELÉN ARAVENA</t>
+          <t>JOAQUÍN ENRIQUE GONZÁLEZ</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F2" t="n">
         <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I2" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="J2" t="n">
         <v>20</v>
       </c>
       <c r="K2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L2" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O2" t="n">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>23107384-1</t>
+          <t>23097802-6</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>JUSEPTH MAXIMILIANO IVAN ARAVENA</t>
+          <t>SEBASTIÁN ALEXIS GONZÁLEZ</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" t="n">
+        <v>9</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
-      </c>
-      <c r="G3" t="n">
-        <v>9</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>45</v>
       </c>
       <c r="J3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N3" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="O3" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>23222209-3</t>
+          <t>23245586-1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PAMELA ALEXSANDRA BAES</t>
+          <t>BENJAMÍN ALEJANDRO VALDÉS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E4" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+      <c r="I4" t="n">
+        <v>28</v>
+      </c>
+      <c r="J4" t="n">
+        <v>10</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
-      <c r="H4" t="n">
+      <c r="N4" t="n">
         <v>10</v>
       </c>
-      <c r="I4" t="n">
-        <v>38</v>
-      </c>
-      <c r="J4" t="n">
-        <v>20</v>
-      </c>
-      <c r="K4" t="n">
-        <v>10</v>
-      </c>
-      <c r="L4" t="n">
-        <v>10</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="n">
-        <v>19</v>
-      </c>
       <c r="O4" t="n">
-        <v>102</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>23088893-0</t>
+          <t>23166249-9</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GABRIEL BENJAMÍN CAMPOS</t>
+          <t>ANTONELA IGNACIA BARRIOS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>7</v>
+      </c>
+      <c r="G5" t="n">
         <v>10</v>
       </c>
-      <c r="E5" t="n">
+      <c r="H5" t="n">
         <v>2</v>
       </c>
-      <c r="F5" t="n">
-        <v>5</v>
-      </c>
-      <c r="G5" t="n">
-        <v>11</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
       <c r="I5" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="J5" t="n">
         <v>20</v>
@@ -737,66 +737,66 @@
         <v>10</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O5" t="n">
-        <v>83</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>23084044-K</t>
+          <t>23097280-K</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EMILY ANAÍS GONZÁLEZ</t>
+          <t>DANIELA TATIANA PAINEMAL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>11</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
         <v>6</v>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H6" t="n">
         <v>8</v>
       </c>
       <c r="I6" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="J6" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L6" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N6" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="O6" t="n">
-        <v>107</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -816,10 +816,10 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="34" customWidth="1" min="2" max="2"/>
+    <col width="27" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
     <col width="16" customWidth="1" min="5" max="5"/>
@@ -963,17 +963,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>23107918-1</t>
+          <t>23211469-K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FRANCHESKA BELÉN ARAVENA</t>
+          <t>JOAQUÍN ENRIQUE GONZÁLEZ</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -986,71 +986,71 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>55</v>
+        <v>6.5</v>
       </c>
       <c r="K2" t="n">
-        <v>60</v>
+        <v>6.8</v>
       </c>
       <c r="L2" t="n">
-        <v>59</v>
+        <v>5.8</v>
       </c>
       <c r="M2" t="n">
-        <v>62</v>
+        <v>6.2</v>
       </c>
       <c r="N2" t="n">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>61</v>
+        <v>6.5</v>
       </c>
       <c r="P2" t="n">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="Q2" t="n">
-        <v>61</v>
+        <v>5.5</v>
       </c>
       <c r="R2" t="n">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="S2" t="n">
-        <v>240</v>
+        <v>400</v>
       </c>
       <c r="T2" t="n">
-        <v>235</v>
+        <v>420</v>
       </c>
       <c r="U2" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="V2" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="W2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>23107384-1</t>
+          <t>23097802-6</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>JUSEPTH MAXIMILIANO IVAN ARAVENA</t>
+          <t>SEBASTIÁN ALEXIS GONZÁLEZ</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -1072,69 +1072,69 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="K3" t="n">
-        <v>74</v>
+        <v>5.5</v>
       </c>
       <c r="L3" t="n">
-        <v>72</v>
+        <v>4.8</v>
       </c>
       <c r="M3" t="n">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="N3" t="n">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="O3" t="n">
-        <v>74</v>
+        <v>5.2</v>
       </c>
       <c r="P3" t="n">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="Q3" t="n">
-        <v>75</v>
+        <v>5.5</v>
       </c>
       <c r="R3" t="n">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="S3" t="n">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="T3" t="n">
-        <v>310</v>
+        <v>390</v>
       </c>
       <c r="U3" t="n">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="V3" t="n">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="W3" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>23222209-3</t>
+          <t>23245586-1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PAMELA ALEXSANDRA BAES</t>
+          <t>BENJAMÍN ALEJANDRO VALDÉS</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1149,69 +1149,69 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>62</v>
+        <v>4.2</v>
       </c>
       <c r="K4" t="n">
-        <v>65</v>
+        <v>4.8</v>
       </c>
       <c r="L4" t="n">
-        <v>60</v>
+        <v>4.5</v>
       </c>
       <c r="M4" t="n">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="N4" t="n">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="O4" t="n">
-        <v>66</v>
+        <v>4.9</v>
       </c>
       <c r="P4" t="n">
-        <v>64</v>
+        <v>4.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>67</v>
+        <v>4.8</v>
       </c>
       <c r="R4" t="n">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="S4" t="n">
-        <v>260</v>
+        <v>360</v>
       </c>
       <c r="T4" t="n">
-        <v>255</v>
+        <v>370</v>
       </c>
       <c r="U4" t="n">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="V4" t="n">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="W4" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>23088893-0</t>
+          <t>23166249-9</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GABRIEL BENJAMÍN CAMPOS</t>
+          <t>ANTONELA IGNACIA BARRIOS</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1220,68 +1220,68 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>58</v>
+        <v>6.8</v>
       </c>
       <c r="K5" t="n">
-        <v>60</v>
+        <v>6.9</v>
       </c>
       <c r="L5" t="n">
-        <v>56</v>
+        <v>6.5</v>
       </c>
       <c r="M5" t="n">
-        <v>59</v>
+        <v>6.8</v>
       </c>
       <c r="N5" t="n">
-        <v>57</v>
+        <v>6.7</v>
       </c>
       <c r="O5" t="n">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="P5" t="n">
-        <v>59</v>
+        <v>6.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>60</v>
+        <v>6.8</v>
       </c>
       <c r="R5" t="n">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="S5" t="n">
-        <v>230</v>
+        <v>450</v>
       </c>
       <c r="T5" t="n">
-        <v>225</v>
+        <v>460</v>
       </c>
       <c r="U5" t="n">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="V5" t="n">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="W5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>23084044-K</t>
+          <t>23097280-K</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EMILY ANAÍS GONZÁLEZ</t>
+          <t>DANIELA TATIANA PAINEMAL</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -1294,55 +1294,55 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>75</v>
+        <v>5.5</v>
       </c>
       <c r="K6" t="n">
-        <v>80</v>
+        <v>5.8</v>
       </c>
       <c r="L6" t="n">
-        <v>78</v>
+        <v>5.2</v>
       </c>
       <c r="M6" t="n">
-        <v>79</v>
+        <v>5.5</v>
       </c>
       <c r="N6" t="n">
-        <v>77</v>
+        <v>5.3</v>
       </c>
       <c r="O6" t="n">
-        <v>80</v>
+        <v>5.6</v>
       </c>
       <c r="P6" t="n">
-        <v>78</v>
+        <v>5.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>80</v>
+        <v>5.7</v>
       </c>
       <c r="R6" t="n">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="S6" t="n">
-        <v>320</v>
+        <v>410</v>
       </c>
       <c r="T6" t="n">
-        <v>315</v>
+        <v>405</v>
       </c>
       <c r="U6" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="V6" t="n">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="W6" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
